--- a/KD_Framework/dataEngine/Data.xlsx
+++ b/KD_Framework/dataEngine/Data.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\source\repos\KD_Framework\KD_Framework\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95121368-98E0-4641-8E03-C707F407547D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161BA874-7289-4370-8A21-04E693C5C92E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFEFC3FE-BF86-4AFD-99EC-7FD6462F97DB}"/>
+    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FA344EBB-B7FF-40E2-892D-19FA32BA99AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Settings" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Cases" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,40 +33,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>TestCaseID</t>
-  </si>
-  <si>
-    <t>TestScenarioID</t>
-  </si>
-  <si>
-    <t>RunMode</t>
-  </si>
-  <si>
-    <t>CaseResult</t>
-  </si>
-  <si>
-    <t>PageObject</t>
-  </si>
-  <si>
-    <t>ActionKeyword</t>
-  </si>
-  <si>
-    <t>DataSet</t>
-  </si>
-  <si>
-    <t>TestStepResult</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+  <si>
+    <t>Page Name</t>
+  </si>
+  <si>
+    <t>Login_Page Objects</t>
+  </si>
+  <si>
+    <t>Login_Page</t>
+  </si>
+  <si>
+    <t>usernameSelector</t>
+  </si>
+  <si>
+    <t>passwordSelector</t>
+  </si>
+  <si>
+    <t>signin_btn</t>
+  </si>
+  <si>
+    <t>TestCase ID</t>
+  </si>
+  <si>
+    <t>TestScenario ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Page Object</t>
+  </si>
+  <si>
+    <t>Action_Keyword</t>
+  </si>
+  <si>
+    <t>Data Set</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>LogIn_01</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>openBrowser</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>TS_002</t>
+  </si>
+  <si>
+    <t>Navigate to website</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>http://10.41.84.189:8888/hambidev/Account/Login</t>
+  </si>
+  <si>
+    <t>TS_003</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>Login Page - Hamburger</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>tracz</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Jelszo2</t>
+  </si>
+  <si>
+    <t>LogIn_02</t>
+  </si>
+  <si>
+    <t>TS_005</t>
+  </si>
+  <si>
+    <t>Log in</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Log in to hambidev</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -88,13 +192,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,49 +513,254 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A65A8AB-8F6E-4BC4-B814-69094FEEC34D}">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCC94B4-D22B-46D6-8990-A36BB0F01435}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3D2989-1407-4C5D-885E-144653C8856B}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{7D1DD5B8-DB2B-49BC-9579-ECB280D88E97}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B557136A-36FB-47B4-ACD4-002F79733494}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/KD_Framework/dataEngine/Data.xlsx
+++ b/KD_Framework/dataEngine/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\source\repos\KD_Framework\KD_Framework\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161BA874-7289-4370-8A21-04E693C5C92E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BDF34B-4AB8-4D93-B318-93F055C7FB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{FA344EBB-B7FF-40E2-892D-19FA32BA99AB}"/>
+    <workbookView xWindow="-26280" yWindow="-345" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{FA344EBB-B7FF-40E2-892D-19FA32BA99AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3D2989-1407-4C5D-885E-144653C8856B}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +685,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
@@ -715,7 +715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B557136A-36FB-47B4-ACD4-002F79733494}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/KD_Framework/dataEngine/Data.xlsx
+++ b/KD_Framework/dataEngine/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taracz\source\repos\KD_Framework\KD_Framework\dataEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BDF34B-4AB8-4D93-B318-93F055C7FB42}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F482D885-7872-4A61-91F8-91319CDC4029}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26280" yWindow="-345" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{FA344EBB-B7FF-40E2-892D-19FA32BA99AB}"/>
+    <workbookView xWindow="-28920" yWindow="-4305" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FA344EBB-B7FF-40E2-892D-19FA32BA99AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>Page Name</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>TS_001</t>
-  </si>
-  <si>
-    <t>Open Browser</t>
   </si>
   <si>
     <t>openBrowser</t>
@@ -562,7 +559,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,14 +607,11 @@
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -625,16 +619,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,22 +636,22 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
       <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,22 +659,22 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,19 +682,19 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -746,21 +740,21 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
